--- a/src/main/resources/data/raw data/2023/강남구/총무과/2023년 11월 업무추진비 공개_(총무과).xlsx
+++ b/src/main/resources/data/raw data/2023/강남구/총무과/2023년 11월 업무추진비 공개_(총무과).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
-  <workbookPr codeName="현재_통합_문서"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\JavaProject\work\FreeMeal\src\main\resources\Data\Raw Data\강남구\총무과\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\2023년 총무과\업무추진비\예산집행 모니터링 업무추진비 공개\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21FD1C0-53B8-4FCA-8F12-2DED3A52724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="구청장" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">시책추진업무추진비!$A$4:$H$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">행정국장!$A$4:$H$10</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="498">
   <si>
     <t>승인일</t>
   </si>
@@ -1616,7 +1615,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -1968,7 +1967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1990,7 +1989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1999,6 +1998,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2032,7 +2037,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2041,7 +2046,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,7 +2067,7 @@
     <xf numFmtId="41" fontId="7" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2086,13 +2091,13 @@
     <xf numFmtId="21" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2113,51 +2118,6 @@
     <xf numFmtId="14" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2167,23 +2127,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="쉼표 [0] 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="1"/>
+    <cellStyle name="쉼표 [0] 3" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2461,50 +2493,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1"/>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -2532,507 +2563,507 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A5" s="10">
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="18">
         <v>396000</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A6" s="10">
+      <c r="H5" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="18">
         <v>60000</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="13" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="18">
         <v>33000</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A8" s="10">
+      <c r="H7" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>45240</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="18">
         <v>50000</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A9" s="10">
+    <row r="9" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>45240</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="18">
         <v>50000</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="10">
+    <row r="10" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="18">
         <v>221000</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A11" s="10">
+      <c r="H10" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>45243</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="18">
         <v>29300</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A12" s="10">
+      <c r="H11" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="14">
         <v>45244</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="18">
         <v>25500</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A13" s="10">
+      <c r="H12" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="18">
         <v>32000</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A14" s="10">
+      <c r="H13" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="18">
         <v>195000</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A15" s="10">
+      <c r="H14" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="18">
         <v>40000</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A16" s="10">
+      <c r="H15" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="18">
         <v>134000</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A17" s="10">
+      <c r="H16" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="18">
         <v>171000</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A18" s="10">
+      <c r="H17" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="18">
         <v>76000</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A19" s="10">
+      <c r="H18" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="18">
         <v>151400</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A20" s="10">
+      <c r="H19" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <v>45257</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="18">
         <v>37000</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A21" s="10">
+      <c r="H20" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="18">
         <v>238000</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A22" s="10">
+      <c r="H21" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="18">
         <v>120000</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A23" s="10">
+      <c r="H22" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="18">
         <v>243000</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="13" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H23" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I64">
+  <autoFilter ref="A4:H23">
+    <sortState ref="A5:I64">
       <sortCondition ref="B4:B49"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H47">
+  <sortState ref="A5:H47">
     <sortCondition ref="B5:B47"/>
     <sortCondition ref="C5:C47"/>
   </sortState>
@@ -3047,49 +3078,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -3117,815 +3147,815 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="21">
+    <row r="5" spans="1:8" s="11" customFormat="1">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="21">
         <v>68400</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="21">
+      <c r="H5" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="11" customFormat="1">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="21">
         <v>360000</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="21">
+      <c r="H6" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="21">
         <v>100000</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="21">
+      <c r="H7" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="11" customFormat="1">
+      <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="21">
         <v>212000</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="21">
+      <c r="H8" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="11" customFormat="1">
+      <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="21">
         <v>350000</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="21">
+      <c r="H9" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="11" customFormat="1">
+      <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="21">
         <v>133500</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="21">
+      <c r="H10" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1">
+      <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="37">
         <v>45239</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="21">
         <v>107480</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="21">
+      <c r="H11" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1">
+      <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="37">
         <v>45239</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="21">
         <v>108000</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="21">
+      <c r="H12" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1">
+      <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="37">
         <v>45240</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="21">
         <v>50000</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="21">
+    <row r="14" spans="1:8" s="11" customFormat="1">
+      <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="37">
         <v>45240</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="21">
         <v>50000</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="21">
+    <row r="15" spans="1:8" s="11" customFormat="1">
+      <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="37">
         <v>45240</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="21">
         <v>71000</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="21">
+      <c r="H15" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1">
+      <c r="A16" s="23">
         <v>12</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="37">
         <v>45240</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="21">
         <v>350000</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="21">
+      <c r="H16" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="11" customFormat="1">
+      <c r="A17" s="23">
         <v>13</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="37">
         <v>45243</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="21">
         <v>79000</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="21">
+      <c r="H17" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="11" customFormat="1">
+      <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="37">
         <v>45243</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="21">
         <v>20700</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="21">
+      <c r="H18" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1">
+      <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="37">
         <v>45244</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="21">
         <v>94000</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="21">
+      <c r="H19" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1">
+      <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="37">
         <v>45244</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="21">
         <v>52000</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="21">
+      <c r="H20" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="11" customFormat="1">
+      <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="37">
         <v>45245</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="21">
         <v>50000</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="21">
+      <c r="H21" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1">
+      <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="37">
         <v>45245</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="21">
         <v>173000</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="21">
+      <c r="H22" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="11" customFormat="1">
+      <c r="A23" s="23">
         <v>19</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="37">
         <v>45245</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="21">
         <v>228000</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="21">
+      <c r="H23" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="11" customFormat="1">
+      <c r="A24" s="23">
         <v>20</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="37">
         <v>45246</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="21">
         <v>90000</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="21">
+      <c r="H24" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="11" customFormat="1">
+      <c r="A25" s="23">
         <v>21</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="37">
         <v>45246</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="21">
         <v>220000</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="21">
+      <c r="H25" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="11" customFormat="1">
+      <c r="A26" s="23">
         <v>22</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="37">
         <v>45247</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="21">
         <v>53200</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="21">
+      <c r="H26" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="11" customFormat="1">
+      <c r="A27" s="23">
         <v>23</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="37">
         <v>45247</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="21">
         <v>350000</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="21">
+      <c r="H27" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="11" customFormat="1">
+      <c r="A28" s="23">
         <v>24</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="21">
         <v>82000</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="21">
+      <c r="H28" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="11" customFormat="1">
+      <c r="A29" s="23">
         <v>25</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="21">
         <v>46000</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="21">
+      <c r="H29" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="11" customFormat="1">
+      <c r="A30" s="23">
         <v>26</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="37">
         <v>45252</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="21">
         <v>160000</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="21">
+      <c r="H30" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="11" customFormat="1">
+      <c r="A31" s="23">
         <v>27</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="37">
         <v>45252</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="21">
         <v>287000</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="21">
+      <c r="H31" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="11" customFormat="1">
+      <c r="A32" s="23">
         <v>28</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="37">
         <v>45252</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="21">
         <v>280000</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="21">
+      <c r="H32" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1">
+      <c r="A33" s="23">
         <v>29</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="21">
         <v>36000</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="21">
+      <c r="H33" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1">
+      <c r="A34" s="23">
         <v>30</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="37">
         <v>45260</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="21">
         <v>88000</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="21">
+      <c r="H34" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1">
+      <c r="A35" s="23">
         <v>31</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="37">
         <v>45260</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="21">
         <v>350000</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="13" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I42">
+  <autoFilter ref="A4:H35"/>
+  <sortState ref="A5:I42">
     <sortCondition ref="B4"/>
   </sortState>
   <mergeCells count="2">
@@ -3939,49 +3969,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -4009,164 +4038,164 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="20">
+    <row r="5" spans="1:8" s="10" customFormat="1">
+      <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="36">
         <v>45234</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="21">
         <v>41000</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="20">
+      <c r="H5" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="11" customFormat="1">
+      <c r="A6" s="22">
         <v>2</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="36">
         <v>45245</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="21">
         <v>55300</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="20">
+      <c r="H6" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1">
+      <c r="A7" s="22">
         <v>3</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="21">
         <v>32700</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="22" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="20">
+      <c r="A8" s="22">
         <v>4</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="21">
         <v>22000</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="22" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="20">
+      <c r="A9" s="22">
         <v>5</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="21">
         <v>19000</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A10" s="20">
+      <c r="H9" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="11" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="22">
         <v>6</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="21">
         <v>24500</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="22" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H10" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A4:H10"/>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
@@ -4178,50 +4207,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="44.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="6" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1"/>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -4250,2535 +4278,2527 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="31">
+      <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="42">
         <v>45231</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="31">
         <v>31000</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="H5" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="31">
+      <c r="H5" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="42">
         <v>45231</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="31">
         <v>39000</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="H6" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="31">
+      <c r="H6" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="42">
         <v>45232</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="31">
         <v>29000</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="31">
+      <c r="H7" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="42">
         <v>45232</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="31">
         <v>270000</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="31">
+      <c r="H8" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="33">
         <v>5</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="42">
         <v>45232</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="32">
         <v>22000</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="31">
+      <c r="H9" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="42">
         <v>45232</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="32">
         <v>161500</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="H10" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="31">
+      <c r="H10" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="33">
         <v>7</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="42">
         <v>45232</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="31">
         <v>142000</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="H11" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="31">
+      <c r="H11" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="33">
         <v>8</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="46">
         <v>45233</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="31">
         <v>76000</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="31">
+      <c r="H12" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="33">
         <v>9</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="46">
         <v>45233</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="31">
         <v>53000</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="31">
+      <c r="H13" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="33">
         <v>10</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="46">
         <v>45233</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="31">
         <v>118000</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="H14" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="31">
+      <c r="H14" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="33">
         <v>11</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="46">
         <v>45234</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="31">
         <v>61200</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="H15" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="31">
+      <c r="H15" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="33">
         <v>12</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="46">
         <v>45236</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="31">
         <v>36500</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="H16" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="31">
+      <c r="H16" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="33">
         <v>13</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="46">
         <v>45236</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="31">
         <v>72000</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="H17" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="31">
+      <c r="H17" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="33">
         <v>14</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="46">
         <v>45237</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="31">
         <v>103000</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="31">
+      <c r="H18" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="33">
         <v>15</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="46">
         <v>45237</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="31">
         <v>36000</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H19" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="31">
+      <c r="H19" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="33">
         <v>16</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="46">
         <v>45237</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="31">
         <v>285000</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="H20" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="31">
+      <c r="H20" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="33">
         <v>17</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="46">
         <v>45237</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="31">
         <v>72000</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="31">
+      <c r="H21" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="33">
         <v>18</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="46">
         <v>45237</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="31">
         <v>70000</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="31">
+      <c r="H22" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="33">
         <v>19</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="46">
         <v>45238</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="31">
         <v>140000</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="H23" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="31">
+      <c r="H23" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="33">
         <v>20</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="46">
         <v>45238</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="31">
         <v>24000</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="31">
+      <c r="H24" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="33">
         <v>21</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="46">
         <v>45238</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="31">
         <v>132000</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="31">
+      <c r="H25" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="33">
         <v>22</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="46">
         <v>45238</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="31">
         <v>102000</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="31">
+      <c r="H26" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="33">
         <v>23</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="46">
         <v>45239</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="31">
         <v>66000</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="31">
+      <c r="H27" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="33">
         <v>24</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="46">
         <v>45239</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="31">
         <v>220000</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="31">
+      <c r="H28" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="33">
         <v>25</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="46">
         <v>45240</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="31">
         <v>66000</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="31">
+      <c r="H29" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="33">
         <v>26</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="46">
         <v>45240</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="31">
         <v>33000</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="H30" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="31">
+      <c r="H30" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="33">
         <v>27</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="46">
         <v>45240</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="31">
         <v>156000</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="H31" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="31">
+      <c r="H31" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="33">
         <v>28</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="46">
         <v>45243</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="31">
         <v>353000</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="31">
+      <c r="H32" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="33">
         <v>29</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="46">
         <v>45243</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="31">
         <v>63000</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="31">
+      <c r="H33" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="33">
         <v>30</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="46">
         <v>45244</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="31">
         <v>31000</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="H34" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="69">
+      <c r="H34" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="57">
         <v>31</v>
       </c>
-      <c r="B35" s="60">
+      <c r="B35" s="55">
         <v>45244</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="31">
         <v>171000</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="H35" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="69">
+      <c r="H35" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="58"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="31">
+        <v>111000</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="33">
+        <v>32</v>
+      </c>
+      <c r="B37" s="46">
+        <v>45244</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="F37" s="31">
+        <v>301600</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="33">
+        <v>33</v>
+      </c>
+      <c r="B38" s="46">
+        <v>45244</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="31">
+        <v>233500</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="33">
+        <v>34</v>
+      </c>
+      <c r="B39" s="46">
+        <v>45244</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="31">
+        <v>142000</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="60">
-        <v>45244</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="E36" s="61" t="s">
+      <c r="H39" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="33">
+        <v>35</v>
+      </c>
+      <c r="B40" s="46">
+        <v>45245</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="31">
+        <v>154000</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="33">
+        <v>36</v>
+      </c>
+      <c r="B41" s="46">
+        <v>45245</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="31">
+        <v>350000</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="57">
+        <v>37</v>
+      </c>
+      <c r="B42" s="55">
+        <v>45245</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="31">
+        <v>33900</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="58"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="31">
+        <v>9400</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="33">
+        <v>38</v>
+      </c>
+      <c r="B44" s="46">
+        <v>45246</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="31">
+        <v>58000</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="33">
+        <v>39</v>
+      </c>
+      <c r="B45" s="46">
+        <v>45246</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="31">
+        <v>144500</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="33">
+        <v>40</v>
+      </c>
+      <c r="B46" s="46">
+        <v>45247</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="F46" s="31">
+        <v>124000</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="33">
+        <v>41</v>
+      </c>
+      <c r="B47" s="46">
+        <v>45247</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="31">
+        <v>56000</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="33">
+        <v>42</v>
+      </c>
+      <c r="B48" s="46">
+        <v>45247</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="31">
+        <v>237000</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="33">
+        <v>43</v>
+      </c>
+      <c r="B49" s="46">
+        <v>45250</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="31">
+        <v>37000</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="33">
+        <v>44</v>
+      </c>
+      <c r="B50" s="46">
+        <v>45250</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="31">
+        <v>224000</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="33">
+        <v>45</v>
+      </c>
+      <c r="B51" s="46">
+        <v>45250</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="31">
+        <v>117000</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="33">
+        <v>46</v>
+      </c>
+      <c r="B52" s="46">
+        <v>45250</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="31">
+        <v>259000</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="33">
+        <v>47</v>
+      </c>
+      <c r="B53" s="46">
+        <v>45251</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="31">
+        <v>44000</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="33">
+        <v>48</v>
+      </c>
+      <c r="B54" s="46">
+        <v>45251</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="31">
+        <v>178000</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="33">
+        <v>49</v>
+      </c>
+      <c r="B55" s="46">
+        <v>45251</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="31">
+        <v>35000</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="33">
+        <v>50</v>
+      </c>
+      <c r="B56" s="46">
+        <v>45251</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="31">
+        <v>120000</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="33">
+        <v>51</v>
+      </c>
+      <c r="B57" s="46">
+        <v>45251</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="31">
+        <v>147500</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="33">
+        <v>52</v>
+      </c>
+      <c r="B58" s="46">
+        <v>45251</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="31">
+        <v>64000</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="33">
+        <v>53</v>
+      </c>
+      <c r="B59" s="46">
+        <v>45252</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="31">
+        <v>36000</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="33">
+        <v>54</v>
+      </c>
+      <c r="B60" s="46">
+        <v>45252</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="31">
+        <v>57000</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="33">
+        <v>55</v>
+      </c>
+      <c r="B61" s="46">
+        <v>45252</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="31">
+        <v>39000</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="33">
+        <v>56</v>
+      </c>
+      <c r="B62" s="46">
+        <v>45252</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="31">
+        <v>87000</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H62" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="33">
+        <v>57</v>
+      </c>
+      <c r="B63" s="46">
+        <v>45252</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="31">
+        <v>180000</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H63" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="33">
+        <v>58</v>
+      </c>
+      <c r="B64" s="46">
+        <v>45253</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="31">
+        <v>124000</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="33">
+        <v>59</v>
+      </c>
+      <c r="B65" s="46">
+        <v>45253</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="31">
+        <v>52000</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="33">
+        <v>60</v>
+      </c>
+      <c r="B66" s="46">
+        <v>45254</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="31">
+        <v>58500</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="33">
+        <v>61</v>
+      </c>
+      <c r="B67" s="46">
+        <v>45254</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="31">
+        <v>152000</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="33">
+        <v>62</v>
+      </c>
+      <c r="B68" s="46">
+        <v>45254</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="31">
+        <v>157000</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="33">
+        <v>63</v>
+      </c>
+      <c r="B69" s="46">
+        <v>45257</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="31">
+        <v>106000</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="33">
+        <v>64</v>
+      </c>
+      <c r="B70" s="46">
+        <v>45257</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="31">
+        <v>228000</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="33">
+        <v>65</v>
+      </c>
+      <c r="B71" s="46">
+        <v>45258</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="31">
+        <v>31000</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="H71" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="33">
+        <v>66</v>
+      </c>
+      <c r="B72" s="46">
+        <v>45258</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="31">
+        <v>84000</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="33">
+        <v>67</v>
+      </c>
+      <c r="B73" s="46">
+        <v>45259</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="31">
+        <v>196000</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="33">
+        <v>68</v>
+      </c>
+      <c r="B74" s="46">
+        <v>45259</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="31">
+        <v>220000</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="33">
+        <v>69</v>
+      </c>
+      <c r="B75" s="46">
+        <v>45259</v>
+      </c>
+      <c r="C75" s="45">
+        <v>0.77908564814814818</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E75" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="29">
-        <v>111000</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="31">
-        <v>32</v>
-      </c>
-      <c r="B37" s="44">
-        <v>45244</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="F37" s="29">
-        <v>301600</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="31">
-        <v>33</v>
-      </c>
-      <c r="B38" s="44">
-        <v>45244</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="29">
-        <v>233500</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="31">
-        <v>34</v>
-      </c>
-      <c r="B39" s="44">
-        <v>45244</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="29">
-        <v>142000</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="31">
-        <v>35</v>
-      </c>
-      <c r="B40" s="44">
-        <v>45245</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="29">
-        <v>154000</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="31">
-        <v>36</v>
-      </c>
-      <c r="B41" s="44">
-        <v>45245</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="29">
-        <v>350000</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="69">
-        <v>37</v>
-      </c>
-      <c r="B42" s="60">
-        <v>45245</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="E42" s="61" t="s">
+      <c r="F75" s="31">
+        <v>128200</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="33">
+        <v>70</v>
+      </c>
+      <c r="B76" s="46">
+        <v>45259</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="31">
+        <v>126000</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="33">
+        <v>71</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77" s="31">
+        <v>40000</v>
+      </c>
+      <c r="G77" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16.5">
+      <c r="A78" s="33">
+        <v>72</v>
+      </c>
+      <c r="B78" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="66" t="s">
+        <v>430</v>
+      </c>
+      <c r="D78" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F78" s="68">
+        <v>147000</v>
+      </c>
+      <c r="G78" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16.5">
+      <c r="A79" s="33">
+        <v>73</v>
+      </c>
+      <c r="B79" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="D79" s="70" t="s">
+        <v>434</v>
+      </c>
+      <c r="E79" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="29">
-        <v>33900</v>
-      </c>
-      <c r="G42" s="23" t="s">
+      <c r="F79" s="71">
+        <v>15300</v>
+      </c>
+      <c r="G79" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="H42" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="69">
-        <v>37</v>
-      </c>
-      <c r="B43" s="60">
-        <v>45245</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="29">
-        <v>9400</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="H43" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="31">
-        <v>38</v>
-      </c>
-      <c r="B44" s="44">
-        <v>45246</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="29">
+      <c r="H79" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16.5">
+      <c r="A80" s="33">
+        <v>74</v>
+      </c>
+      <c r="B80" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="69" t="s">
+        <v>435</v>
+      </c>
+      <c r="D80" s="70" t="s">
+        <v>434</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="F80" s="71">
+        <v>70300</v>
+      </c>
+      <c r="G80" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.5">
+      <c r="A81" s="33">
+        <v>75</v>
+      </c>
+      <c r="B81" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="D81" s="72" t="s">
+        <v>438</v>
+      </c>
+      <c r="E81" s="79" t="s">
+        <v>439</v>
+      </c>
+      <c r="F81" s="71">
+        <v>87000</v>
+      </c>
+      <c r="G81" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.5">
+      <c r="A82" s="33">
+        <v>76</v>
+      </c>
+      <c r="B82" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="D82" s="73" t="s">
+        <v>438</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="F82" s="71">
+        <v>61000</v>
+      </c>
+      <c r="G82" s="69" t="s">
+        <v>442</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.5">
+      <c r="A83" s="33">
+        <v>77</v>
+      </c>
+      <c r="B83" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="69" t="s">
+        <v>443</v>
+      </c>
+      <c r="D83" s="73" t="s">
+        <v>444</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="F83" s="71">
+        <v>300000</v>
+      </c>
+      <c r="G83" s="74" t="s">
+        <v>446</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16.5">
+      <c r="A84" s="33">
+        <v>78</v>
+      </c>
+      <c r="B84" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="C84" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="F84" s="71">
+        <v>115000</v>
+      </c>
+      <c r="G84" s="69" t="s">
+        <v>449</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16.5">
+      <c r="A85" s="33">
+        <v>79</v>
+      </c>
+      <c r="B85" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="C85" s="80">
+        <v>0.51236111111111116</v>
+      </c>
+      <c r="D85" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="F85" s="71">
+        <v>66000</v>
+      </c>
+      <c r="G85" s="69" t="s">
+        <v>495</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16.5">
+      <c r="A86" s="33">
+        <v>80</v>
+      </c>
+      <c r="B86" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="C86" s="69" t="s">
+        <v>451</v>
+      </c>
+      <c r="D86" s="70" t="s">
+        <v>431</v>
+      </c>
+      <c r="E86" s="79" t="s">
+        <v>439</v>
+      </c>
+      <c r="F86" s="71">
+        <v>133000</v>
+      </c>
+      <c r="G86" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.5">
+      <c r="A87" s="33">
+        <v>81</v>
+      </c>
+      <c r="B87" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="D87" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="E87" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="F87" s="71">
+        <v>80000</v>
+      </c>
+      <c r="G87" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16.5">
+      <c r="A88" s="33">
+        <v>82</v>
+      </c>
+      <c r="B88" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="69" t="s">
+        <v>456</v>
+      </c>
+      <c r="D88" s="70" t="s">
+        <v>496</v>
+      </c>
+      <c r="E88" s="79" t="s">
+        <v>439</v>
+      </c>
+      <c r="F88" s="71">
+        <v>110000</v>
+      </c>
+      <c r="G88" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16.5">
+      <c r="A89" s="33">
+        <v>83</v>
+      </c>
+      <c r="B89" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="75" t="s">
+        <v>458</v>
+      </c>
+      <c r="D89" s="70" t="s">
+        <v>459</v>
+      </c>
+      <c r="E89" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="F89" s="71">
         <v>58000</v>
       </c>
-      <c r="G44" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="31">
-        <v>39</v>
-      </c>
-      <c r="B45" s="44">
-        <v>45246</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="29">
-        <v>144500</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="31">
-        <v>40</v>
-      </c>
-      <c r="B46" s="44">
-        <v>45247</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="E46" s="23" t="s">
+      <c r="G89" s="74" t="s">
+        <v>419</v>
+      </c>
+      <c r="H89" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16.5">
+      <c r="A90" s="33">
+        <v>84</v>
+      </c>
+      <c r="B90" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="75" t="s">
+        <v>460</v>
+      </c>
+      <c r="D90" s="70" t="s">
+        <v>496</v>
+      </c>
+      <c r="E90" s="79" t="s">
+        <v>461</v>
+      </c>
+      <c r="F90" s="71">
+        <v>98000</v>
+      </c>
+      <c r="G90" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="H90" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16.5">
+      <c r="A91" s="33">
+        <v>85</v>
+      </c>
+      <c r="B91" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="D91" s="73" t="s">
+        <v>464</v>
+      </c>
+      <c r="E91" s="79" t="s">
+        <v>465</v>
+      </c>
+      <c r="F91" s="71">
+        <v>94500</v>
+      </c>
+      <c r="G91" s="78" t="s">
+        <v>466</v>
+      </c>
+      <c r="H91" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16.5">
+      <c r="A92" s="33">
+        <v>86</v>
+      </c>
+      <c r="B92" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="69" t="s">
+        <v>467</v>
+      </c>
+      <c r="D92" s="73" t="s">
+        <v>459</v>
+      </c>
+      <c r="E92" s="79" t="s">
+        <v>497</v>
+      </c>
+      <c r="F92" s="71">
+        <v>121000</v>
+      </c>
+      <c r="G92" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H92" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16.5">
+      <c r="A93" s="33">
+        <v>87</v>
+      </c>
+      <c r="B93" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="69" t="s">
+        <v>468</v>
+      </c>
+      <c r="D93" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="E93" s="79" t="s">
+        <v>469</v>
+      </c>
+      <c r="F93" s="71">
+        <v>396000</v>
+      </c>
+      <c r="G93" s="69" t="s">
+        <v>470</v>
+      </c>
+      <c r="H93" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16.5">
+      <c r="A94" s="33">
+        <v>88</v>
+      </c>
+      <c r="B94" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="69" t="s">
+        <v>471</v>
+      </c>
+      <c r="D94" s="70" t="s">
+        <v>472</v>
+      </c>
+      <c r="E94" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="F94" s="71">
+        <v>50500</v>
+      </c>
+      <c r="G94" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="H94" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16.5">
+      <c r="A95" s="33">
+        <v>89</v>
+      </c>
+      <c r="B95" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" s="69" t="s">
+        <v>473</v>
+      </c>
+      <c r="D95" s="70" t="s">
+        <v>487</v>
+      </c>
+      <c r="E95" s="79" t="s">
+        <v>474</v>
+      </c>
+      <c r="F95" s="71">
+        <v>141000</v>
+      </c>
+      <c r="G95" s="69" t="s">
+        <v>475</v>
+      </c>
+      <c r="H95" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16.5">
+      <c r="A96" s="33">
+        <v>90</v>
+      </c>
+      <c r="B96" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="76" t="s">
+        <v>476</v>
+      </c>
+      <c r="D96" s="70" t="s">
+        <v>448</v>
+      </c>
+      <c r="E96" s="79" t="s">
+        <v>461</v>
+      </c>
+      <c r="F96" s="71">
+        <v>59700</v>
+      </c>
+      <c r="G96" s="69" t="s">
+        <v>477</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16.5">
+      <c r="A97" s="33">
+        <v>91</v>
+      </c>
+      <c r="B97" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="69" t="s">
+        <v>478</v>
+      </c>
+      <c r="D97" s="73" t="s">
+        <v>479</v>
+      </c>
+      <c r="E97" s="79" t="s">
+        <v>439</v>
+      </c>
+      <c r="F97" s="71">
+        <v>182000</v>
+      </c>
+      <c r="G97" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="H97" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16.5">
+      <c r="A98" s="33">
+        <v>92</v>
+      </c>
+      <c r="B98" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="69" t="s">
+        <v>480</v>
+      </c>
+      <c r="D98" s="73" t="s">
+        <v>479</v>
+      </c>
+      <c r="E98" s="79" t="s">
+        <v>481</v>
+      </c>
+      <c r="F98" s="71">
+        <v>12000</v>
+      </c>
+      <c r="G98" s="69" t="s">
+        <v>482</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.5">
+      <c r="A99" s="33">
+        <v>93</v>
+      </c>
+      <c r="B99" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="69" t="s">
+        <v>483</v>
+      </c>
+      <c r="D99" s="70" t="s">
+        <v>484</v>
+      </c>
+      <c r="E99" s="79" t="s">
         <v>370</v>
       </c>
-      <c r="F46" s="29">
-        <v>124000</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="31">
-        <v>41</v>
-      </c>
-      <c r="B47" s="44">
-        <v>45247</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="29">
-        <v>56000</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="31">
-        <v>42</v>
-      </c>
-      <c r="B48" s="44">
-        <v>45247</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="29">
-        <v>237000</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="31">
-        <v>43</v>
-      </c>
-      <c r="B49" s="44">
-        <v>45250</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="29">
-        <v>37000</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="31">
-        <v>44</v>
-      </c>
-      <c r="B50" s="44">
-        <v>45250</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="29">
-        <v>224000</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="31">
-        <v>45</v>
-      </c>
-      <c r="B51" s="44">
-        <v>45250</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="29">
-        <v>117000</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="31">
-        <v>46</v>
-      </c>
-      <c r="B52" s="44">
-        <v>45250</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="29">
-        <v>259000</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="31">
-        <v>47</v>
-      </c>
-      <c r="B53" s="44">
-        <v>45251</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="29">
-        <v>44000</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="31">
-        <v>48</v>
-      </c>
-      <c r="B54" s="44">
-        <v>45251</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="29">
-        <v>178000</v>
-      </c>
-      <c r="G54" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="31">
-        <v>49</v>
-      </c>
-      <c r="B55" s="44">
-        <v>45251</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="29">
-        <v>35000</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="H55" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="31">
-        <v>50</v>
-      </c>
-      <c r="B56" s="44">
-        <v>45251</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="31">
-        <v>51</v>
-      </c>
-      <c r="B57" s="44">
-        <v>45251</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="29">
-        <v>147500</v>
-      </c>
-      <c r="G57" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="31">
-        <v>52</v>
-      </c>
-      <c r="B58" s="44">
-        <v>45251</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="29">
-        <v>64000</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="H58" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="31">
-        <v>53</v>
-      </c>
-      <c r="B59" s="44">
-        <v>45252</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="29">
-        <v>36000</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="31">
-        <v>54</v>
-      </c>
-      <c r="B60" s="44">
-        <v>45252</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="29">
-        <v>57000</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H60" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="31">
-        <v>55</v>
-      </c>
-      <c r="B61" s="44">
-        <v>45252</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="29">
-        <v>39000</v>
-      </c>
-      <c r="G61" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="H61" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="31">
-        <v>56</v>
-      </c>
-      <c r="B62" s="44">
-        <v>45252</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="29">
-        <v>87000</v>
-      </c>
-      <c r="G62" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="H62" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="31">
-        <v>57</v>
-      </c>
-      <c r="B63" s="44">
-        <v>45252</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="29">
-        <v>180000</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="31">
-        <v>58</v>
-      </c>
-      <c r="B64" s="44">
-        <v>45253</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="29">
-        <v>124000</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="31">
-        <v>59</v>
-      </c>
-      <c r="B65" s="44">
-        <v>45253</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="29">
-        <v>52000</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="31">
-        <v>60</v>
-      </c>
-      <c r="B66" s="44">
-        <v>45254</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="29">
-        <v>58500</v>
-      </c>
-      <c r="G66" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="H66" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="31">
-        <v>61</v>
-      </c>
-      <c r="B67" s="44">
-        <v>45254</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="29">
-        <v>152000</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="31">
-        <v>62</v>
-      </c>
-      <c r="B68" s="44">
-        <v>45254</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="29">
-        <v>157000</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="H68" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="31">
-        <v>63</v>
-      </c>
-      <c r="B69" s="44">
-        <v>45257</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="29">
-        <v>106000</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="31">
-        <v>64</v>
-      </c>
-      <c r="B70" s="44">
-        <v>45257</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="29">
-        <v>228000</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="31">
-        <v>65</v>
-      </c>
-      <c r="B71" s="44">
-        <v>45258</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="29">
-        <v>31000</v>
-      </c>
-      <c r="G71" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="H71" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="31">
-        <v>66</v>
-      </c>
-      <c r="B72" s="44">
-        <v>45258</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="29">
-        <v>84000</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="H72" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="31">
-        <v>67</v>
-      </c>
-      <c r="B73" s="44">
-        <v>45259</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="29">
-        <v>196000</v>
-      </c>
-      <c r="G73" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="H73" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="31">
-        <v>68</v>
-      </c>
-      <c r="B74" s="44">
-        <v>45259</v>
-      </c>
-      <c r="C74" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="29">
-        <v>220000</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="31">
-        <v>69</v>
-      </c>
-      <c r="B75" s="44">
-        <v>45259</v>
-      </c>
-      <c r="C75" s="43">
-        <v>0.77908564814814818</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="29">
-        <v>128200</v>
-      </c>
-      <c r="G75" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H75" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="31">
-        <v>70</v>
-      </c>
-      <c r="B76" s="44">
-        <v>45259</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="29">
-        <v>126000</v>
-      </c>
-      <c r="G76" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H76" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="31">
-        <v>71</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F77" s="29">
-        <v>40000</v>
-      </c>
-      <c r="G77" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="17.399999999999999">
-      <c r="A78" s="31">
-        <v>72</v>
-      </c>
-      <c r="B78" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>492</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="F78" s="50">
-        <v>147000</v>
-      </c>
-      <c r="G78" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="24" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="17.399999999999999">
-      <c r="A79" s="31">
-        <v>73</v>
-      </c>
-      <c r="B79" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>433</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="52">
-        <v>15300</v>
-      </c>
-      <c r="G79" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="17.399999999999999">
-      <c r="A80" s="31">
-        <v>74</v>
-      </c>
-      <c r="B80" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" s="51" t="s">
-        <v>435</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="F80" s="52">
-        <v>70300</v>
-      </c>
-      <c r="G80" s="51" t="s">
-        <v>436</v>
-      </c>
-      <c r="H80" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="17.399999999999999">
-      <c r="A81" s="31">
-        <v>75</v>
-      </c>
-      <c r="B81" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="51" t="s">
-        <v>437</v>
-      </c>
-      <c r="D81" s="53" t="s">
-        <v>438</v>
-      </c>
-      <c r="E81" s="21" t="s">
+      <c r="F99" s="71">
+        <v>67900</v>
+      </c>
+      <c r="G99" s="69" t="s">
+        <v>485</v>
+      </c>
+      <c r="H99" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16.5">
+      <c r="A100" s="33">
+        <v>94</v>
+      </c>
+      <c r="B100" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="69" t="s">
+        <v>486</v>
+      </c>
+      <c r="D100" s="70" t="s">
+        <v>487</v>
+      </c>
+      <c r="E100" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="F81" s="52">
-        <v>87000</v>
-      </c>
-      <c r="G81" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="H81" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="17.399999999999999">
-      <c r="A82" s="31">
-        <v>76</v>
-      </c>
-      <c r="B82" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>440</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>438</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="F82" s="52">
-        <v>61000</v>
-      </c>
-      <c r="G82" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="H82" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="17.399999999999999">
-      <c r="A83" s="31">
-        <v>77</v>
-      </c>
-      <c r="B83" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>443</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>444</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="F83" s="52">
-        <v>300000</v>
-      </c>
-      <c r="G83" s="54" t="s">
-        <v>446</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="17.399999999999999">
-      <c r="A84" s="31">
-        <v>78</v>
-      </c>
-      <c r="B84" s="51" t="s">
-        <v>447</v>
-      </c>
-      <c r="C84" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" s="51" t="s">
+      <c r="F100" s="71">
+        <v>98000</v>
+      </c>
+      <c r="G100" s="69" t="s">
+        <v>488</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16.5">
+      <c r="A101" s="33">
+        <v>95</v>
+      </c>
+      <c r="B101" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="69" t="s">
+        <v>489</v>
+      </c>
+      <c r="D101" s="73" t="s">
         <v>448</v>
       </c>
-      <c r="E84" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="F84" s="52">
-        <v>115000</v>
-      </c>
-      <c r="G84" s="51" t="s">
-        <v>449</v>
-      </c>
-      <c r="H84" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="17.399999999999999">
-      <c r="A85" s="31">
-        <v>79</v>
-      </c>
-      <c r="B85" s="51" t="s">
-        <v>447</v>
-      </c>
-      <c r="C85" s="59">
-        <v>0.51236111111111116</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>431</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="F85" s="52">
-        <v>66000</v>
-      </c>
-      <c r="G85" s="51" t="s">
-        <v>495</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="17.399999999999999">
-      <c r="A86" s="31">
-        <v>80</v>
-      </c>
-      <c r="B86" s="51" t="s">
-        <v>450</v>
-      </c>
-      <c r="C86" s="51" t="s">
-        <v>451</v>
-      </c>
-      <c r="D86" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="F86" s="52">
-        <v>133000</v>
-      </c>
-      <c r="G86" s="51" t="s">
-        <v>452</v>
-      </c>
-      <c r="H86" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="17.399999999999999">
-      <c r="A87" s="31">
-        <v>81</v>
-      </c>
-      <c r="B87" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="51" t="s">
-        <v>453</v>
-      </c>
-      <c r="D87" s="51" t="s">
-        <v>448</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="F87" s="52">
-        <v>80000</v>
-      </c>
-      <c r="G87" s="51" t="s">
-        <v>455</v>
-      </c>
-      <c r="H87" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="17.399999999999999">
-      <c r="A88" s="31">
-        <v>82</v>
-      </c>
-      <c r="B88" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="51" t="s">
-        <v>456</v>
-      </c>
-      <c r="D88" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="F88" s="52">
-        <v>110000</v>
-      </c>
-      <c r="G88" s="51" t="s">
-        <v>457</v>
-      </c>
-      <c r="H88" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="17.399999999999999">
-      <c r="A89" s="31">
-        <v>83</v>
-      </c>
-      <c r="B89" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" s="55" t="s">
-        <v>458</v>
-      </c>
-      <c r="D89" s="43" t="s">
-        <v>459</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="F89" s="52">
-        <v>58000</v>
-      </c>
-      <c r="G89" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="H89" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="17.399999999999999">
-      <c r="A90" s="31">
-        <v>84</v>
-      </c>
-      <c r="B90" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" s="55" t="s">
-        <v>460</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="F90" s="52">
-        <v>98000</v>
-      </c>
-      <c r="G90" s="54" t="s">
-        <v>462</v>
-      </c>
-      <c r="H90" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="17.399999999999999">
-      <c r="A91" s="31">
-        <v>85</v>
-      </c>
-      <c r="B91" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="C91" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="D91" s="51" t="s">
-        <v>464</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="F91" s="52">
-        <v>94500</v>
-      </c>
-      <c r="G91" s="58" t="s">
-        <v>466</v>
-      </c>
-      <c r="H91" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="17.399999999999999">
-      <c r="A92" s="31">
-        <v>86</v>
-      </c>
-      <c r="B92" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>467</v>
-      </c>
-      <c r="D92" s="51" t="s">
-        <v>459</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="F92" s="52">
-        <v>121000</v>
-      </c>
-      <c r="G92" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="H92" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="17.399999999999999">
-      <c r="A93" s="31">
-        <v>87</v>
-      </c>
-      <c r="B93" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93" s="51" t="s">
-        <v>468</v>
-      </c>
-      <c r="D93" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="F93" s="52">
-        <v>396000</v>
-      </c>
-      <c r="G93" s="51" t="s">
-        <v>470</v>
-      </c>
-      <c r="H93" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="17.399999999999999">
-      <c r="A94" s="31">
-        <v>88</v>
-      </c>
-      <c r="B94" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="51" t="s">
-        <v>471</v>
-      </c>
-      <c r="D94" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="F94" s="52">
-        <v>50500</v>
-      </c>
-      <c r="G94" s="51" t="s">
-        <v>436</v>
-      </c>
-      <c r="H94" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="17.399999999999999">
-      <c r="A95" s="31">
-        <v>89</v>
-      </c>
-      <c r="B95" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C95" s="51" t="s">
-        <v>473</v>
-      </c>
-      <c r="D95" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="F95" s="52">
-        <v>141000</v>
-      </c>
-      <c r="G95" s="51" t="s">
-        <v>475</v>
-      </c>
-      <c r="H95" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="17.399999999999999">
-      <c r="A96" s="31">
-        <v>90</v>
-      </c>
-      <c r="B96" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96" s="56" t="s">
-        <v>476</v>
-      </c>
-      <c r="D96" s="43" t="s">
-        <v>448</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="F96" s="52">
-        <v>59700</v>
-      </c>
-      <c r="G96" s="51" t="s">
-        <v>477</v>
-      </c>
-      <c r="H96" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="17.399999999999999">
-      <c r="A97" s="31">
-        <v>91</v>
-      </c>
-      <c r="B97" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="C97" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="D97" s="51" t="s">
-        <v>479</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="F97" s="52">
-        <v>182000</v>
-      </c>
-      <c r="G97" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="H97" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="17.399999999999999">
-      <c r="A98" s="31">
-        <v>92</v>
-      </c>
-      <c r="B98" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C98" s="51" t="s">
-        <v>480</v>
-      </c>
-      <c r="D98" s="51" t="s">
-        <v>479</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="F98" s="52">
-        <v>12000</v>
-      </c>
-      <c r="G98" s="51" t="s">
-        <v>482</v>
-      </c>
-      <c r="H98" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="17.399999999999999">
-      <c r="A99" s="31">
-        <v>93</v>
-      </c>
-      <c r="B99" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="51" t="s">
-        <v>483</v>
-      </c>
-      <c r="D99" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="F99" s="52">
-        <v>67900</v>
-      </c>
-      <c r="G99" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="H99" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="17.399999999999999">
-      <c r="A100" s="31">
-        <v>94</v>
-      </c>
-      <c r="B100" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="51" t="s">
-        <v>486</v>
-      </c>
-      <c r="D100" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="F100" s="52">
-        <v>98000</v>
-      </c>
-      <c r="G100" s="51" t="s">
-        <v>488</v>
-      </c>
-      <c r="H100" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="17.399999999999999">
-      <c r="A101" s="31">
-        <v>95</v>
-      </c>
-      <c r="B101" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C101" s="51" t="s">
-        <v>489</v>
-      </c>
-      <c r="D101" s="51" t="s">
-        <v>448</v>
-      </c>
-      <c r="E101" s="21" t="s">
+      <c r="E101" s="79" t="s">
         <v>490</v>
       </c>
-      <c r="F101" s="52">
+      <c r="F101" s="71">
         <v>50000</v>
       </c>
-      <c r="G101" s="51" t="s">
+      <c r="G101" s="69" t="s">
         <v>491</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="H101" s="26" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H75">
+  <sortState ref="A5:H75">
     <sortCondition ref="B5:B75"/>
     <sortCondition ref="C5:C75"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="10">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.26" right="0.17" top="0.59" bottom="0.32" header="0.3" footer="0.3"/>
@@ -6787,50 +6807,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="44.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="44.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1"/>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -6859,477 +6879,475 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="31">
+      <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="31">
         <v>120000</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="31">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="36">
         <v>45233</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="31">
         <v>77300</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="31">
+      <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="31">
         <v>173000</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="31">
+      <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="49">
         <v>45239</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="32">
         <v>85000</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="31">
+      <c r="A9" s="33">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="32">
         <v>156000</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="31">
+      <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="32">
         <v>58000</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="31">
+      <c r="A11" s="33">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="32">
         <v>95700</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="31">
+      <c r="A12" s="33">
         <v>8</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="32">
         <v>96000</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="31">
+      <c r="A13" s="33">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="28" t="s">
         <v>391</v>
       </c>
       <c r="D13" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="32">
         <v>12000</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="31">
+      <c r="A14" s="33">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="62" t="s">
-        <v>409</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="F14" s="30">
+      <c r="D14" s="63"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="32">
         <v>8000</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="31">
+      <c r="A15" s="33">
         <v>11</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="49">
         <v>45253</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="32">
         <v>53500</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="31">
+      <c r="A16" s="33">
         <v>12</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="49">
         <v>45253</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="32">
         <v>60000</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="31">
+      <c r="A17" s="33">
         <v>13</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="49">
         <v>45257</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="32">
         <v>180000</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="31">
+      <c r="A18" s="33">
         <v>14</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="49">
         <v>45257</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="32">
         <v>105600</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="31">
+      <c r="A19" s="33">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="32">
         <v>54000</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="31">
+      <c r="A20" s="33">
         <v>16</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="32">
         <v>39000</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="31">
+      <c r="A21" s="33">
         <v>17</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="49">
         <v>45260</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="32">
         <v>152000</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="31">
+      <c r="A22" s="33">
         <v>18</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="49">
         <v>45260</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="32">
         <v>75000</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="26" t="s">
         <v>429</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.26" right="0.17" top="0.59" bottom="0.32" header="0.3" footer="0.3"/>
